--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value798.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value798.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169373104496436</v>
+        <v>1.373617649078369</v>
       </c>
       <c r="B1">
-        <v>3.374524152872489</v>
+        <v>2.042556285858154</v>
       </c>
       <c r="C1">
-        <v>2.670765296060261</v>
+        <v>3.915194511413574</v>
       </c>
       <c r="D1">
-        <v>2.442556230622268</v>
+        <v>1.077288866043091</v>
       </c>
       <c r="E1">
-        <v>1.927915185457104</v>
+        <v>0.7182868123054504</v>
       </c>
     </row>
   </sheetData>
